--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26335,10 +26337,10 @@
         <v>8835.981590351535</v>
       </c>
       <c r="J2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="K2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="L2" t="n">
         <v>8835.981590351535</v>
@@ -26347,7 +26349,7 @@
         <v>8835.981590351535</v>
       </c>
       <c r="N2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="O2" t="n">
         <v>8835.981590351535</v>
@@ -26543,10 +26545,10 @@
         <v>6872.430125828972</v>
       </c>
       <c r="J6" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828971</v>
       </c>
       <c r="K6" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828971</v>
       </c>
       <c r="L6" t="n">
         <v>6872.430125828972</v>
@@ -26555,7 +26557,7 @@
         <v>6872.430125828972</v>
       </c>
       <c r="N6" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828971</v>
       </c>
       <c r="O6" t="n">
         <v>6872.430125828972</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34490.07548075881</v>
+        <v>-45851.44382238304</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="C2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="D2" t="n">
         <v>8835.981590351535</v>
@@ -26328,25 +26328,25 @@
         <v>8835.981590351535</v>
       </c>
       <c r="G2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351537</v>
       </c>
       <c r="H2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="I2" t="n">
         <v>8835.981590351535</v>
       </c>
       <c r="J2" t="n">
-        <v>8835.981590351534</v>
+        <v>8835.981590351535</v>
       </c>
       <c r="K2" t="n">
-        <v>8835.981590351534</v>
+        <v>8835.981590351535</v>
       </c>
       <c r="L2" t="n">
         <v>8835.981590351535</v>
       </c>
       <c r="M2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
       <c r="N2" t="n">
         <v>8835.981590351534</v>
@@ -26355,7 +26355,7 @@
         <v>8835.981590351535</v>
       </c>
       <c r="P2" t="n">
-        <v>8835.981590351535</v>
+        <v>8835.981590351534</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="C6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="D6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="E6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="F6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="G6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027195</v>
       </c>
       <c r="H6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027191</v>
       </c>
       <c r="I6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="J6" t="n">
-        <v>6872.430125828971</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="K6" t="n">
-        <v>6872.430125828971</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="L6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="M6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027191</v>
       </c>
       <c r="N6" t="n">
-        <v>6872.430125828971</v>
+        <v>5514.501029027191</v>
       </c>
       <c r="O6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="P6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027191</v>
       </c>
     </row>
   </sheetData>
